--- a/Clase 1/CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW 413.xlsx
+++ b/Clase 1/CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW 413.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\UTN\2019\II Cuatrimestre\aplica_db_martes_2_2019\Clase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B43023-0196-4F61-A888-1D5066FD4CC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADC452-DF32-4A76-B303-A512E0F867AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30975" yWindow="4335" windowWidth="11520" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horario Miercoles (T)" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Semana</t>
   </si>
@@ -195,6 +196,18 @@
   </si>
   <si>
     <t>CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW-413</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Quices</t>
+  </si>
+  <si>
+    <t>Examenes</t>
+  </si>
+  <si>
+    <t>Exposicion</t>
   </si>
 </sst>
 </file>
@@ -410,13 +423,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D56:D57"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,51 +810,51 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>43600</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -850,31 +863,31 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <f>C3+7</f>
         <v>43607</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
@@ -883,52 +896,52 @@
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <f>C10+7</f>
         <v>43614</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -937,45 +950,45 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <f>C14+7</f>
         <v>43621</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -984,17 +997,17 @@
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <f>C21+7</f>
         <v>43628</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
@@ -1015,73 +1028,73 @@
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="15">
         <f>C29+7</f>
         <v>43642</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
@@ -1090,17 +1103,17 @@
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="15">
         <f>C30+7</f>
         <v>43649</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
@@ -1109,17 +1122,17 @@
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="15">
         <f>C40+7</f>
         <v>43656</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
@@ -1128,17 +1141,17 @@
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <f>C42+7</f>
         <v>43663</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
@@ -1147,17 +1160,17 @@
       <c r="B46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="15">
         <f>C44+7</f>
         <v>43670</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
@@ -1219,19 +1232,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="C30:C39"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A40:A41"/>
@@ -1240,8 +1240,82 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263C5FF-194C-4706-94A9-86230DAEBF35}">
+  <dimension ref="B3:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>